--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halsayxi\Desktop\thuirlab\组会\20250910\final_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3737E2E9-9811-4FC2-B84A-7646C3978DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6133F8-B576-4307-B78A-E395CD067F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{1A10E913-6A1E-4376-880A-22B7F29311FC}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Variable</t>
   </si>
@@ -349,10 +349,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>p_value</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>llm_ATE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -372,14 +368,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>***  p &lt; 0.01  
-**   0.01 &lt;= p &lt; 0.05  
-*    0.05 &lt;= p &lt; 0.1  
-n.s. p &gt;= 0.1  
-numeric value = exact p-value (e.g., p = 0.023)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Average Treatment Effect, representing the average difference in daily usage per person between the treated group and the control group (LLM)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -393,6 +381,23 @@
   </si>
   <si>
     <t>Robust Standard Error of the ATE, measuring the estimation precision of the treatment effect (human)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 = Significant (p &lt; 0.1)  
+0 = Not significant (p &gt;= 0.1) </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>significance_binary</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_size_replication</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sample size in the replication experiment</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1348,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2CCBDC-6639-474A-A78B-1A7B5002B89B}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1493,7 +1498,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1520,255 +1525,263 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>81</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>82</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>90</v>
       </c>
     </row>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halsayxi\Desktop\thuirlab\组会\20250910\final_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6133F8-B576-4307-B78A-E395CD067F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7A6256-B46E-45AC-BCCA-36FABF86B8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{1A10E913-6A1E-4376-880A-22B7F29311FC}"/>
+    <workbookView xWindow="0" yWindow="2790" windowWidth="19780" windowHeight="12490" xr2:uid="{1A10E913-6A1E-4376-880A-22B7F29311FC}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>Variable</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>Year of publication</t>
-  </si>
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>Name and version of the large language model (LLM) tested</t>
   </si>
   <si>
     <t>intervention_category</t>
@@ -216,54 +210,27 @@
     <t>Upper bound of the confidence interval (human)</t>
   </si>
   <si>
-    <t>llm_mean_control</t>
-  </si>
-  <si>
     <t>Mean of outcome variable in control condition (LLM)</t>
   </si>
   <si>
-    <t>llm_mean_intervention</t>
-  </si>
-  <si>
     <t>Mean of outcome variable in intervention condition (LLM)</t>
   </si>
   <si>
-    <t>llm_std_control</t>
-  </si>
-  <si>
     <t>Standard deviation of outcome variable in control condition (LLM)</t>
   </si>
   <si>
-    <t>llm_std_intervention</t>
-  </si>
-  <si>
     <t>Standard deviation of outcome variable in intervention condition (LLM)</t>
   </si>
   <si>
-    <t>llm_cohens_d</t>
-  </si>
-  <si>
     <t>Extracted effect size of intervention, Cohen’s d (LLM)</t>
   </si>
   <si>
-    <t>llm_p_value</t>
-  </si>
-  <si>
-    <t>llm_variance_d</t>
-  </si>
-  <si>
     <t>Variance around extracted effect size of intervention (LLM)</t>
   </si>
   <si>
-    <t>llm_ci_lower</t>
-  </si>
-  <si>
     <t>Lower bound of the confidence interval (LLM)</t>
   </si>
   <si>
-    <t>llm_ci_upper</t>
-  </si>
-  <si>
     <t>Upper bound of the confidence interval (LLM)</t>
   </si>
   <si>
@@ -293,14 +260,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>activation_rate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Type of the social network structure</t>
-  </si>
-  <si>
-    <t>Probability of edge activation in each round</t>
   </si>
   <si>
     <t>high_clustering = highly clustered network
@@ -310,11 +270,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>[0,1] = numerical value indicating the probability of edge activation in each round
-no_spread = no spreading mechanism, so activation probability is not applicable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>round_x</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -330,10 +285,6 @@
   </si>
   <si>
     <t>cycle</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>The nudge cycle number corresponding to the row of data</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -398,6 +349,119 @@
   </si>
   <si>
     <t>Sample size in the replication experiment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_mean_control</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_mean_intervention</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_std_control</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_std_intervention</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_cohens_d</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_p_value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_variance_d</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_ci_lower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{model_name}_llm_ci_upper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>llm_p_value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of nudges within 30 days in the long-term experiment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>single nudge = nudge once
+3 repeated nudge = nudge 3 times
+5 repeated nudge = nudge 5 times</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The ID of llm agent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experimental round (indicates the day of the experiment)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>activate_friends</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice_1_friends</t>
+  </si>
+  <si>
+    <t>initial_choice</t>
+  </si>
+  <si>
+    <t>last_choice</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>Number of friends activated in this round</t>
+  </si>
+  <si>
+    <t>Number of activated friends choosing 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial choice of the agent on the nudge day</t>
+  </si>
+  <si>
+    <t>Previous round choice</t>
+  </si>
+  <si>
+    <t>Current round choice</t>
+  </si>
+  <si>
+    <t>group0_round_x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>group1_round_x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average of the group who chose 1 on the nudge day in round x</t>
+  </si>
+  <si>
+    <t>Average of the group who chose 0 on the nudge day in round x</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +629,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -991,11 +1062,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1353,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2CCBDC-6639-474A-A78B-1A7B5002B89B}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1367,423 +1441,535 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="168" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="168" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="336" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="196" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
+      <c r="B50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1804,12 +1990,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
